--- a/datas/youbike.xlsx
+++ b/datas/youbike.xlsx
@@ -384,12 +384,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>緯度</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>經度</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>緯度</t>
         </is>
       </c>
     </row>

--- a/datas/youbike.xlsx
+++ b/datas/youbike.xlsx
@@ -369,32 +369,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>站名</t>
+          <t>sna</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>車位總數</t>
+          <t>tot</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>可借車位數</t>
+          <t>bemp</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>行政區</t>
+          <t>sarea</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>緯度</t>
+          <t>lat</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>經度</t>
+          <t>lng</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
